--- a/Failure examples/CHC_Schedule_November_2025.xlsx
+++ b/Failure examples/CHC_Schedule_November_2025.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,6 +419,12 @@
       <c r="E1" t="str">
         <v>Close</v>
       </c>
+      <c r="F1" t="str">
+        <v>Holiday</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PTO Today</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -427,361 +434,487 @@
         <v>Sat</v>
       </c>
       <c r="C2" t="str">
-        <v>Ryan</v>
+        <v>-</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>Ryan</v>
       </c>
       <c r="E2" t="str">
-        <v>Kristy</v>
+        <v>-</v>
+      </c>
+      <c r="F2" t="str">
+        <v>-</v>
+      </c>
+      <c r="G2" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>November 2</v>
+        <v>November 3</v>
       </c>
       <c r="B3" t="str">
-        <v>Sun</v>
+        <v>Mon</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Kristy</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>Mikaela</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>Lauren</v>
+      </c>
+      <c r="F3" t="str">
+        <v>-</v>
+      </c>
+      <c r="G3" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>November 3</v>
+        <v>November 4</v>
       </c>
       <c r="B4" t="str">
-        <v>Mon</v>
+        <v>Tue</v>
       </c>
       <c r="C4" t="str">
+        <v>Kristy</v>
+      </c>
+      <c r="D4" t="str">
         <v>Lauren</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>Mikaela</v>
       </c>
-      <c r="E4" t="str">
-        <v>Kristy</v>
+      <c r="F4" t="str">
+        <v>-</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Ryan</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>November 4</v>
+        <v>November 5</v>
       </c>
       <c r="B5" t="str">
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C5" t="str">
-        <v>Lauren</v>
+        <v>Ryan</v>
       </c>
       <c r="D5" t="str">
-        <v>Ryan</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>Mikaela</v>
+        <v>Kristy</v>
+      </c>
+      <c r="F5" t="str">
+        <v>-</v>
+      </c>
+      <c r="G5" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>November 5</v>
+        <v>November 6</v>
       </c>
       <c r="B6" t="str">
-        <v>Wed</v>
+        <v>Thu</v>
       </c>
       <c r="C6" t="str">
-        <v>Kristy</v>
+        <v>-</v>
       </c>
       <c r="D6" t="str">
-        <v>Mikaela</v>
+        <v>Ryan</v>
       </c>
       <c r="E6" t="str">
-        <v>Lauren</v>
+        <v>-</v>
+      </c>
+      <c r="F6" t="str">
+        <v>-</v>
+      </c>
+      <c r="G6" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>November 6</v>
+        <v>November 7</v>
       </c>
       <c r="B7" t="str">
-        <v>Thu</v>
+        <v>Fri</v>
       </c>
       <c r="C7" t="str">
-        <v>Ryan</v>
+        <v>Kristy</v>
       </c>
       <c r="D7" t="str">
-        <v>Mikaela</v>
+        <v>Ryan</v>
       </c>
       <c r="E7" t="str">
-        <v>Kristy</v>
+        <v>Lauren</v>
+      </c>
+      <c r="F7" t="str">
+        <v>-</v>
+      </c>
+      <c r="G7" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>November 7</v>
+        <v>November 8</v>
       </c>
       <c r="B8" t="str">
-        <v>Fri</v>
+        <v>Sat</v>
       </c>
       <c r="C8" t="str">
-        <v>Lauren</v>
+        <v>-</v>
       </c>
       <c r="D8" t="str">
         <v>Ryan</v>
       </c>
       <c r="E8" t="str">
-        <v>Mikaela</v>
+        <v>-</v>
+      </c>
+      <c r="F8" t="str">
+        <v>-</v>
+      </c>
+      <c r="G8" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>November 8</v>
+        <v>November 10</v>
       </c>
       <c r="B9" t="str">
-        <v>Sat</v>
+        <v>Mon</v>
       </c>
       <c r="C9" t="str">
+        <v>Kristy</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Mikaela</v>
+      </c>
+      <c r="E9" t="str">
         <v>Lauren</v>
       </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <v>Mikaela</v>
+      <c r="F9" t="str">
+        <v>-</v>
+      </c>
+      <c r="G9" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>November 9</v>
+        <v>November 11</v>
       </c>
       <c r="B10" t="str">
-        <v>Sun</v>
+        <v>Tue</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Ryan</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>Mikaela</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>Kristy</v>
+      </c>
+      <c r="F10" t="str">
+        <v>-</v>
+      </c>
+      <c r="G10" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>November 10</v>
+        <v>November 12</v>
       </c>
       <c r="B11" t="str">
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="C11" t="str">
-        <v>Kristy</v>
+        <v>Ryan</v>
       </c>
       <c r="D11" t="str">
-        <v>Ryan</v>
+        <v>Kristy</v>
       </c>
       <c r="E11" t="str">
         <v>Lauren</v>
       </c>
+      <c r="F11" t="str">
+        <v>-</v>
+      </c>
+      <c r="G11" t="str">
+        <v>-</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>November 11</v>
+        <v>November 13</v>
       </c>
       <c r="B12" t="str">
-        <v>Tue</v>
+        <v>Thu</v>
       </c>
       <c r="C12" t="str">
-        <v>Kristy</v>
+        <v>-</v>
       </c>
       <c r="D12" t="str">
         <v>Ryan</v>
       </c>
       <c r="E12" t="str">
-        <v>Mikaela</v>
+        <v>-</v>
+      </c>
+      <c r="F12" t="str">
+        <v>-</v>
+      </c>
+      <c r="G12" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>November 12</v>
+        <v>November 14</v>
       </c>
       <c r="B13" t="str">
-        <v>Wed</v>
+        <v>Fri</v>
       </c>
       <c r="C13" t="str">
-        <v>Kristy</v>
+        <v>Lauren</v>
       </c>
       <c r="D13" t="str">
-        <v>Lauren</v>
+        <v>Ryan</v>
       </c>
       <c r="E13" t="str">
-        <v>Ryan</v>
+        <v>Kristy</v>
+      </c>
+      <c r="F13" t="str">
+        <v>-</v>
+      </c>
+      <c r="G13" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>November 13</v>
+        <v>November 15</v>
       </c>
       <c r="B14" t="str">
-        <v>Thu</v>
+        <v>Sat</v>
       </c>
       <c r="C14" t="str">
-        <v>Ryan</v>
+        <v>-</v>
       </c>
       <c r="D14" t="str">
-        <v>Kristy</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>Mikaela</v>
+        <v>-</v>
+      </c>
+      <c r="F14" t="str">
+        <v>-</v>
+      </c>
+      <c r="G14" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>November 14</v>
+        <v>November 17</v>
       </c>
       <c r="B15" t="str">
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="C15" t="str">
-        <v>Lauren</v>
+        <v>Kristy</v>
       </c>
       <c r="D15" t="str">
         <v>Mikaela</v>
       </c>
       <c r="E15" t="str">
-        <v>Ryan</v>
+        <v>Lauren</v>
+      </c>
+      <c r="F15" t="str">
+        <v>-</v>
+      </c>
+      <c r="G15" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>November 15</v>
+        <v>November 18</v>
       </c>
       <c r="B16" t="str">
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="C16" t="str">
-        <v>Lauren</v>
+        <v>Ryan</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>Mikaela</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>Kristy</v>
+      </c>
+      <c r="F16" t="str">
+        <v>-</v>
+      </c>
+      <c r="G16" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>November 16</v>
+        <v>November 19</v>
       </c>
       <c r="B17" t="str">
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Ryan</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>Kristy</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>Lauren</v>
+      </c>
+      <c r="F17" t="str">
+        <v>-</v>
+      </c>
+      <c r="G17" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>November 17</v>
+        <v>November 20</v>
       </c>
       <c r="B18" t="str">
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="C18" t="str">
-        <v>Kristy</v>
+        <v>-</v>
       </c>
       <c r="D18" t="str">
-        <v>Lauren</v>
+        <v>Ryan</v>
       </c>
       <c r="E18" t="str">
-        <v>Mikaela</v>
+        <v>-</v>
+      </c>
+      <c r="F18" t="str">
+        <v>-</v>
+      </c>
+      <c r="G18" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>November 18</v>
+        <v>November 21</v>
       </c>
       <c r="B19" t="str">
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="C19" t="str">
-        <v>Kristy</v>
+        <v>Lauren</v>
       </c>
       <c r="D19" t="str">
         <v>Ryan</v>
       </c>
       <c r="E19" t="str">
-        <v>Lauren</v>
+        <v>Kristy</v>
+      </c>
+      <c r="F19" t="str">
+        <v>-</v>
+      </c>
+      <c r="G19" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>November 19</v>
+        <v>November 22</v>
       </c>
       <c r="B20" t="str">
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="C20" t="str">
-        <v>Mikaela</v>
+        <v>-</v>
       </c>
       <c r="D20" t="str">
-        <v>Kristy</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v>Ryan</v>
+        <v>-</v>
+      </c>
+      <c r="F20" t="str">
+        <v>-</v>
+      </c>
+      <c r="G20" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>November 20</v>
+        <v>November 24</v>
       </c>
       <c r="B21" t="str">
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="C21" t="str">
+        <v>Kristy</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Ryan</v>
+      </c>
+      <c r="E21" t="str">
         <v>Lauren</v>
       </c>
-      <c r="D21" t="str">
-        <v>Ryan</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Kristy</v>
+      <c r="F21" t="str">
+        <v>-</v>
+      </c>
+      <c r="G21" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>November 21</v>
+        <v>November 25</v>
       </c>
       <c r="B22" t="str">
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="C22" t="str">
-        <v>Mikaela</v>
+        <v>Kristy</v>
       </c>
       <c r="D22" t="str">
-        <v>Ryan</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v>Kristy</v>
+        <v>Ryan</v>
+      </c>
+      <c r="F22" t="str">
+        <v>-</v>
+      </c>
+      <c r="G22" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>November 22</v>
+        <v>November 26</v>
       </c>
       <c r="B23" t="str">
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="C23" t="str">
         <v/>
@@ -791,147 +924,86 @@
       </c>
       <c r="E23" t="str">
         <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>-</v>
+      </c>
+      <c r="G23" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>November 23</v>
+        <v>November 27</v>
       </c>
       <c r="B24" t="str">
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="C24" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="D24" t="str">
         <v/>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Thanksgiving (Thanksgiving)</v>
+      </c>
+      <c r="G24" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>November 24</v>
+        <v>November 28</v>
       </c>
       <c r="B25" t="str">
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="C25" t="str">
-        <v>Lauren</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>Mikaela</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v>Ryan</v>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>Day After Thanksgiving (Day After Thanksgiving)</v>
+      </c>
+      <c r="G25" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>November 25</v>
+        <v>November 29</v>
       </c>
       <c r="B26" t="str">
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="C26" t="str">
-        <v>Kristy</v>
+        <v>-</v>
       </c>
       <c r="D26" t="str">
-        <v>Lauren</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v>Mikaela</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>November 26</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Wed</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Ryan</v>
-      </c>
-      <c r="D27" t="str">
-        <v>Lauren</v>
-      </c>
-      <c r="E27" t="str">
-        <v>Kristy</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>November 27</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Thu</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Mikaela</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Lauren</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Ryan</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>November 28</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Fri</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Mikaela</v>
-      </c>
-      <c r="D29" t="str">
-        <v>Kristy</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Lauren</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>November 29</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Sat</v>
-      </c>
-      <c r="C30" t="str">
-        <v/>
-      </c>
-      <c r="D30" t="str">
-        <v/>
-      </c>
-      <c r="E30" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>November 30</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Sun</v>
-      </c>
-      <c r="C31" t="str">
-        <v/>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="F26" t="str">
+        <v>-</v>
+      </c>
+      <c r="G26" t="str">
+        <v>-</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G26"/>
   </ignoredErrors>
 </worksheet>
 </file>